--- a/dac.2024.digilent/model/config.xlsx
+++ b/dac.2024.digilent/model/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willr\Git\dacDT\dac.2024.digilent\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B00D2D-6A8A-4735-A4B4-4A475F67FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6EE42-BDAE-4CB6-A5FA-27DF33BD2BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41955" yWindow="6510" windowWidth="19890" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,15 +103,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,10 +485,10 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -501,16 +505,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -526,11 +533,14 @@
       <c r="E2" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -546,11 +556,14 @@
       <c r="E3" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -566,11 +579,14 @@
       <c r="E4" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -586,11 +602,14 @@
       <c r="E5" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -606,13 +625,16 @@
       <c r="E6" s="5">
         <v>1E-4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
@@ -626,11 +648,14 @@
       <c r="E7" s="2">
         <v>1E-4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -644,9 +669,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8" s="7">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F8" t="s">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/dac.2024.digilent/model/config.xlsx
+++ b/dac.2024.digilent/model/config.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6EE42-BDAE-4CB6-A5FA-27DF33BD2BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A96DE9-24B2-4584-95C7-B0A9C55CC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41955" yWindow="6510" windowWidth="19890" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52260" yWindow="2910" windowWidth="22410" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,19 +104,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,10 +140,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +164,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,15 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,24 +482,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9CCDB-92CC-45E5-8A86-79BFADE6C1E7}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -505,177 +742,168 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
         <v>0.01</v>
       </c>
-      <c r="D2" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>100000</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
         <v>0.01</v>
       </c>
-      <c r="D3" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>100000</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
         <v>0.01</v>
       </c>
-      <c r="D4" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>100000</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5">
         <v>0.01</v>
       </c>
-      <c r="D5" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>100000</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dac.2024.digilent/model/config.xlsx
+++ b/dac.2024.digilent/model/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\dacDT\dac.2024.digilent\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A96DE9-24B2-4584-95C7-B0A9C55CC088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666DA84A-A66A-451E-93B5-249A98ABFDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52260" yWindow="2910" windowWidth="22410" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51390" yWindow="4665" windowWidth="21465" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op-Amp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,6 +714,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9CCDB-92CC-45E5-8A86-79BFADE6C1E7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -906,6 +940,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>100000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
